--- a/frontend/public/template/unittcms-import-template-v1.xlsx
+++ b/frontend/public/template/unittcms-import-template-v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A62C0-4E95-49A0-A581-D0C1C4CFB185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5600A-00E8-47E4-9B15-6896BC1094A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2039BD62-3899-47EF-84EE-9DFADB5F8F14}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>title</t>
   </si>
@@ -164,17 +164,15 @@
     <t>Its license is the same as the project code in the repository.</t>
   </si>
   <si>
-    <t>For full license details, please refer to the GitHub repository.</t>
-  </si>
-  <si>
-    <t>If you find any issues or have suggestions, please open an issue on GitHub.</t>
+    <t>https://github.com/kimatata/unittcms</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +338,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -659,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,8 +793,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,8 +816,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -835,6 +848,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -2422,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B281BE21-9904-4F6E-A9FC-F82C7794A341}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -2453,19 +2467,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{A59C5817-5B95-40C5-9EE6-6B4E1561EC4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>